--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Response</t>
   </si>
@@ -124,6 +124,24 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Mon, 01 Jul 2019 13:10:05 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 01:25:26 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 01:25:28 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -503,10 +521,10 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>400</v>
@@ -514,7 +532,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -525,7 +543,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>Response</t>
   </si>
@@ -142,6 +142,51 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 01:25:28 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 01:42:46 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 01:42:47 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 01:49:22 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 01:49:28 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 01:49:34 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -521,7 +566,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -532,7 +577,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -543,7 +588,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>Response</t>
   </si>
@@ -187,6 +187,15 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 01:49:34 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 02:04:16 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -566,7 +575,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -577,7 +586,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -588,7 +597,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>Response</t>
   </si>
@@ -196,6 +196,15 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 02:04:16 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 02:07:49 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -575,7 +584,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -586,7 +595,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -597,7 +606,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>Response</t>
   </si>
@@ -205,6 +205,24 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 02:07:49 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 02:11:14 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 02:11:15 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -584,7 +602,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -595,7 +613,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -606,7 +624,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t>Response</t>
   </si>
@@ -223,6 +223,24 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 02:11:15 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 02:24:03 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 02:24:04 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -602,7 +620,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -613,7 +631,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -624,7 +642,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
   <si>
     <t>Response</t>
   </si>
@@ -241,6 +241,24 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 02:24:04 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 02:29:14 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 02:29:18 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -620,7 +638,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -631,7 +649,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -642,7 +660,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
   <si>
     <t>Response</t>
   </si>
@@ -259,6 +259,24 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 02:29:18 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 02:47:12 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 02:47:13 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -638,7 +656,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -649,7 +667,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -660,7 +678,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
   <si>
     <t>Response</t>
   </si>
@@ -277,6 +277,24 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 02:47:13 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:20:45 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:20:46 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -656,7 +674,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -667,7 +685,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -678,7 +696,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t>Response</t>
   </si>
@@ -295,6 +295,24 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 07:20:46 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:28:02 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:28:03 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -674,7 +692,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -685,7 +703,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -696,7 +714,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
   <si>
     <t>Response</t>
   </si>
@@ -313,6 +313,105 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 07:28:03 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:39:29 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:39:30 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:48:27 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:48:28 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:48:29 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:50:31 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:50:32 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:58:52 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 07:58:53 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 08:04:23 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 08:04:24 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -692,7 +791,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -703,7 +802,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -714,7 +813,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
   <si>
     <t>Response</t>
   </si>
@@ -412,6 +412,42 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 08:04:24 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 08:44:21 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 08:44:22 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 08:48:02 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 08:48:03 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -791,7 +827,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -802,7 +838,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -813,7 +849,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>

--- a/testScripts/TestData.xlsx
+++ b/testScripts/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
   <si>
     <t>Response</t>
   </si>
@@ -448,6 +448,24 @@
     <t>HTTP/1.1 200 
 Content-Type: application/java; charset=UTF-8
 Date: Tue, 02 Jul 2019 08:48:03 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 08:53:11 GMT
+Server: nginx
+Content-Length: 13
+Connection: keep-alive
+CI/CD Demo...</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 
+Content-Type: application/java; charset=UTF-8
+Date: Tue, 02 Jul 2019 08:53:12 GMT
 Server: nginx
 Content-Length: 13
 Connection: keep-alive
@@ -827,7 +845,7 @@
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -838,7 +856,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -849,7 +867,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
